--- a/Project List.xlsx
+++ b/Project List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c8b229bb754efc4/Desktop/GenSOM Automation/UPDATE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{194DC3F2-CB39-487A-98AB-706F72B541C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{334700C6-BD05-4B49-B871-F2EAD2ED9424}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{194DC3F2-CB39-487A-98AB-706F72B541C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{112B075A-B322-428E-BAA4-1FAD1C767C10}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,6 +329,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,10 +382,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +692,7 @@
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +713,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -717,7 +721,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -725,7 +729,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -733,7 +737,7 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -741,7 +745,7 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -749,7 +753,7 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -757,7 +761,7 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -765,7 +769,7 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -773,7 +777,7 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -781,7 +785,7 @@
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -789,7 +793,7 @@
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -797,7 +801,7 @@
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -805,7 +809,7 @@
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -813,7 +817,7 @@
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -821,7 +825,7 @@
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -829,7 +833,7 @@
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -837,7 +841,7 @@
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -845,7 +849,7 @@
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -853,7 +857,7 @@
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -861,7 +865,7 @@
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -869,7 +873,7 @@
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -877,7 +881,7 @@
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -885,7 +889,7 @@
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -893,7 +897,7 @@
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -901,7 +905,7 @@
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -909,7 +913,7 @@
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -917,7 +921,7 @@
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -925,7 +929,7 @@
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -933,7 +937,7 @@
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -941,7 +945,7 @@
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -949,7 +953,7 @@
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -957,7 +961,7 @@
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -965,7 +969,7 @@
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -973,7 +977,7 @@
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -981,7 +985,7 @@
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -989,7 +993,7 @@
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -997,7 +1001,7 @@
       <c r="A38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1005,7 +1009,7 @@
       <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1013,7 +1017,7 @@
       <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1021,7 +1025,7 @@
       <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1029,7 +1033,7 @@
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1037,7 +1041,7 @@
       <c r="A43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1045,7 +1049,7 @@
       <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1053,7 +1057,7 @@
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1061,7 +1065,7 @@
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1069,7 +1073,7 @@
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1077,7 +1081,7 @@
       <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1085,7 +1089,7 @@
       <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1093,7 +1097,7 @@
       <c r="A50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1101,7 +1105,7 @@
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1109,7 +1113,7 @@
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1117,7 +1121,7 @@
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1125,7 +1129,7 @@
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1133,7 +1137,7 @@
       <c r="A55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1141,7 +1145,7 @@
       <c r="A56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1149,7 +1153,7 @@
       <c r="A57" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1157,7 +1161,7 @@
       <c r="A58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1165,7 +1169,7 @@
       <c r="A59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1173,7 +1177,7 @@
       <c r="A60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1181,7 +1185,7 @@
       <c r="A61" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1189,7 +1193,7 @@
       <c r="A62" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1197,7 +1201,7 @@
       <c r="A63" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1205,7 +1209,7 @@
       <c r="A64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1213,7 +1217,7 @@
       <c r="A65" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1221,7 +1225,7 @@
       <c r="A66" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1229,7 +1233,7 @@
       <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1237,7 +1241,7 @@
       <c r="A68" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1245,7 +1249,7 @@
       <c r="A69" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1253,7 +1257,7 @@
       <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1261,7 +1265,7 @@
       <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1269,7 +1273,7 @@
       <c r="A72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1277,7 +1281,7 @@
       <c r="A73" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1285,7 +1289,7 @@
       <c r="A74" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1293,7 +1297,7 @@
       <c r="A75" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1301,7 +1305,7 @@
       <c r="A76" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1309,7 +1313,7 @@
       <c r="A77" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1317,7 +1321,7 @@
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1325,7 +1329,7 @@
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1333,7 +1337,7 @@
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1341,7 +1345,7 @@
       <c r="A81" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1349,7 +1353,7 @@
       <c r="A82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1357,7 +1361,7 @@
       <c r="A83" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1365,7 +1369,7 @@
       <c r="A84" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>100</v>
       </c>
     </row>

--- a/Project List.xlsx
+++ b/Project List.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\UPDATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHARAJMAN\Desktop\Automation\UPDATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E6880F-E480-48AC-9FCD-2B68EC6CC81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="company" sheetId="3" r:id="rId2"/>
     <sheet name="location" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="198">
   <si>
     <t>RSPL</t>
   </si>
@@ -613,12 +613,15 @@
   </si>
   <si>
     <t>RCF CMT</t>
+  </si>
+  <si>
+    <t>project_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
@@ -652,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -699,11 +702,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -726,6 +740,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,10 +1042,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3C9B7D-DCD8-4EF6-A7A8-28A3A36E0D2E}">
-  <dimension ref="A1:D81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1042,7 +1057,7 @@
     <col min="4" max="4" width="47.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -1055,8 +1070,11 @@
       <c r="D1" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1084,7 +1102,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1098,7 +1116,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1112,7 +1130,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1126,7 +1144,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1158,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1172,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +1186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1200,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1210,7 +1228,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1256,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1270,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2182,7 +2200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28410943-1D84-4B8D-8660-34E227B2CBD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2475,10 +2493,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818A3FF8-C206-4E30-B037-CE6DF0EA7CA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Project List.xlsx
+++ b/Project List.xlsx
@@ -5,24 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHARAJMAN\Desktop\Automation\UPDATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\UPDATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Main" sheetId="5" r:id="rId1"/>
     <sheet name="company" sheetId="3" r:id="rId2"/>
     <sheet name="location" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="285">
   <si>
     <t>RSPL</t>
   </si>
@@ -561,9 +560,6 @@
     <t>company_name</t>
   </si>
   <si>
-    <t>project_name</t>
-  </si>
-  <si>
     <t>commission_date</t>
   </si>
   <si>
@@ -616,6 +612,270 @@
   </si>
   <si>
     <t>project_id</t>
+  </si>
+  <si>
+    <t>GM-CG-BHI</t>
+  </si>
+  <si>
+    <t>RT-HR-LUM</t>
+  </si>
+  <si>
+    <t>RT-KA-LUK</t>
+  </si>
+  <si>
+    <t>GM-KA-ATH</t>
+  </si>
+  <si>
+    <t>GM-KA-TOR</t>
+  </si>
+  <si>
+    <t>GM-KA-SIN</t>
+  </si>
+  <si>
+    <t>GM-KA-SWE</t>
+  </si>
+  <si>
+    <t>GM-KA-FLA</t>
+  </si>
+  <si>
+    <t>GM-KA-SCO</t>
+  </si>
+  <si>
+    <t>GM-KA-SPA</t>
+  </si>
+  <si>
+    <t>GM-KA-BLI</t>
+  </si>
+  <si>
+    <t>GM-RJ-GUD</t>
+  </si>
+  <si>
+    <t>GM-RJ-SAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT-RJ-DHD </t>
+  </si>
+  <si>
+    <t>RT-RJ-DHB</t>
+  </si>
+  <si>
+    <t>RT-RJ-MCD</t>
+  </si>
+  <si>
+    <t>RT-RJ-MCB</t>
+  </si>
+  <si>
+    <t>RT-RJ-MCP</t>
+  </si>
+  <si>
+    <t>RT-RJ-DHP</t>
+  </si>
+  <si>
+    <t>RT-RJ-ESA</t>
+  </si>
+  <si>
+    <t>RT-RJ-JAI</t>
+  </si>
+  <si>
+    <t>RT-RJ-JOD</t>
+  </si>
+  <si>
+    <t>RT-RJ-ESJ</t>
+  </si>
+  <si>
+    <t>RT-RJ-BAR</t>
+  </si>
+  <si>
+    <t>RT-RJ-HCJ</t>
+  </si>
+  <si>
+    <t>RT-RJ-MCA</t>
+  </si>
+  <si>
+    <t>RT-RJ-DHA</t>
+  </si>
+  <si>
+    <t>RT-RJ-MCS</t>
+  </si>
+  <si>
+    <t>RT-RJ-DHS</t>
+  </si>
+  <si>
+    <t>RT-RJ-MCJ</t>
+  </si>
+  <si>
+    <t>RT-RJ-DHJ</t>
+  </si>
+  <si>
+    <t>RT-RJ-DHK</t>
+  </si>
+  <si>
+    <t>RT-RJ-AIJ</t>
+  </si>
+  <si>
+    <t>RT-RJ-BIK</t>
+  </si>
+  <si>
+    <t>RT-DL-DCN</t>
+  </si>
+  <si>
+    <t>RT-DL-SHD</t>
+  </si>
+  <si>
+    <t>RT-DL-SAR</t>
+  </si>
+  <si>
+    <t>RT-UP-EMU</t>
+  </si>
+  <si>
+    <t>RT-DL-TK1</t>
+  </si>
+  <si>
+    <t>RT-DL-TK2</t>
+  </si>
+  <si>
+    <t>RT-DL-TK3</t>
+  </si>
+  <si>
+    <t>RT-DL-TK4</t>
+  </si>
+  <si>
+    <t>RT-DL-EOG</t>
+  </si>
+  <si>
+    <t>RT-RJ-BPR</t>
+  </si>
+  <si>
+    <t>RT-MP-ADM</t>
+  </si>
+  <si>
+    <t>RT-MP-HOS</t>
+  </si>
+  <si>
+    <t>RT-RJ-NRO</t>
+  </si>
+  <si>
+    <t>RT-MP-NSL</t>
+  </si>
+  <si>
+    <t>RT-MP-ROH</t>
+  </si>
+  <si>
+    <t>RT-MP-RWA</t>
+  </si>
+  <si>
+    <t>RT-MH-ADA</t>
+  </si>
+  <si>
+    <t>RT-MH-TAT</t>
+  </si>
+  <si>
+    <t>RT-MH-DRM</t>
+  </si>
+  <si>
+    <t>RT-MH-PRS</t>
+  </si>
+  <si>
+    <t>RT-MH-KHD</t>
+  </si>
+  <si>
+    <t>RT-MH-SHN</t>
+  </si>
+  <si>
+    <t>RT-MH-LIF</t>
+  </si>
+  <si>
+    <t>RT-MH-WHE</t>
+  </si>
+  <si>
+    <t>RT-RJ-CAR</t>
+  </si>
+  <si>
+    <t>RT-RJ-LOC</t>
+  </si>
+  <si>
+    <t>RT-PJ-ADN</t>
+  </si>
+  <si>
+    <t>RT-PJ-TTC</t>
+  </si>
+  <si>
+    <t>RT-PJ-SSS</t>
+  </si>
+  <si>
+    <t>RT-PJ-LAB</t>
+  </si>
+  <si>
+    <t>RT-PJ-CAN</t>
+  </si>
+  <si>
+    <t>RT-PJ-LLR</t>
+  </si>
+  <si>
+    <t>RT-MP-NPH</t>
+  </si>
+  <si>
+    <t>RT-CG-RSP</t>
+  </si>
+  <si>
+    <t>GM-GJ-TAP</t>
+  </si>
+  <si>
+    <t>GM-HR-DIW</t>
+  </si>
+  <si>
+    <t>RT-RJ-GPR</t>
+  </si>
+  <si>
+    <t>RT-RJ-DGA</t>
+  </si>
+  <si>
+    <t>RT-RJ-MCG</t>
+  </si>
+  <si>
+    <t>RT-RJ-IBM</t>
+  </si>
+  <si>
+    <t>RT-MP-MHR</t>
+  </si>
+  <si>
+    <t>RT-MH-LNL</t>
+  </si>
+  <si>
+    <t>GM-RJ-SIR</t>
+  </si>
+  <si>
+    <t>RT-MP-BPL</t>
+  </si>
+  <si>
+    <t>site_name</t>
+  </si>
+  <si>
+    <t>Refex Renewable Infrastructure Limited</t>
+  </si>
+  <si>
+    <t>HCIL Damoh</t>
+  </si>
+  <si>
+    <t>RT-TN-REF</t>
+  </si>
+  <si>
+    <t>GM-MP-HCIL</t>
+  </si>
+  <si>
+    <t>GM-RJ-NAK</t>
+  </si>
+  <si>
+    <t>10-01-2024</t>
+  </si>
+  <si>
+    <t>21-10-2022</t>
+  </si>
+  <si>
+    <t>16-03-2022</t>
+  </si>
+  <si>
+    <t>GM-JK-PAR</t>
   </si>
 </sst>
 </file>
@@ -624,7 +884,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -717,13 +977,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,6 +1000,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,48 +1304,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="12">
         <v>43592</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1092,13 +1357,16 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="4">
         <v>43710</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1106,13 +1374,16 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="4">
         <v>43997</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1120,13 +1391,16 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="4">
         <v>42852</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1134,13 +1408,16 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="4">
         <v>42917</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1148,13 +1425,16 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="4">
         <v>43172</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1162,13 +1442,16 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="4">
         <v>42975</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1176,13 +1459,16 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="4">
         <v>42915</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1190,13 +1476,16 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="4">
         <v>42914</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1204,13 +1493,16 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="4">
         <v>42921</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1218,13 +1510,16 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="4">
         <v>42912</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1232,13 +1527,16 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
-        <v>44747</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="4">
+        <v>40970</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1246,13 +1544,16 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="4">
         <v>44087</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1260,13 +1561,16 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="4">
         <v>45038</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1274,925 +1578,1171 @@
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="4">
         <v>44281</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="4">
         <v>44082</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="4">
         <v>44264</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="4">
         <v>43726</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="4">
         <v>43686</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="4">
         <v>43655</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="4">
         <v>43655</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="4">
         <v>43667</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="4">
         <v>43667</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="4">
         <v>43739</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="4">
         <v>43717</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="4">
         <v>43759</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="4">
         <v>43684</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="4">
         <v>43705</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="4">
         <v>43655</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="4">
         <v>43671</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="4">
         <v>43687</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="4">
         <v>43712</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="4">
         <v>43809</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="4">
         <v>43706</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="4">
         <v>43706</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="4">
         <v>43729</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="4">
         <v>43732</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="4">
         <v>43761</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="4">
         <v>43958</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="4">
         <v>44107</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="4">
         <v>44224</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="4">
         <v>44074</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="4">
         <v>44356</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="4">
         <v>44356</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="4">
         <v>44356</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="4">
         <v>44356</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="4">
         <v>44097</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="4">
         <v>44177</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="4">
         <v>44422</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="4">
         <v>44422</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="4">
         <v>44422</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="4">
         <v>44422</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="4">
         <v>44422</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="4">
         <v>44422</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="4">
         <v>44270</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="4">
         <v>44364</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="4">
         <v>44426</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="4">
         <v>44526</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" s="4">
         <v>44526</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="4">
         <v>44483</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="4">
         <v>44476</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" s="4">
         <v>44445</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="4">
         <v>44446</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="4">
         <v>44254</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="4">
         <v>44254</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" s="4">
         <v>44363</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="4">
         <v>44375</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="4">
         <v>44373</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" s="4">
         <v>44653</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" s="4">
         <v>44664</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" s="4">
         <v>44366</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73" s="4">
         <v>44422</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C74" s="4">
         <v>44608</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="4">
         <v>43658</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" s="4">
         <v>45812</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" s="4">
         <v>44363</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D77" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C78" s="4">
         <v>44392</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" s="4">
         <v>43672</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="4">
         <v>40978</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="4">
         <v>44747</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>114</v>
       </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2504,104 +3054,104 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Project List.xlsx
+++ b/Project List.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="5" r:id="rId1"/>
-    <sheet name="company" sheetId="3" r:id="rId2"/>
-    <sheet name="location" sheetId="4" r:id="rId3"/>
+    <sheet name="lat_long" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="company" sheetId="3" r:id="rId4"/>
+    <sheet name="location" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="318">
   <si>
     <t>RSPL</t>
   </si>
@@ -876,6 +878,105 @@
   </si>
   <si>
     <t>GM-JK-PAR</t>
+  </si>
+  <si>
+    <t>Bhilai</t>
+  </si>
+  <si>
+    <t>Gudha</t>
+  </si>
+  <si>
+    <t>Sambhar</t>
+  </si>
+  <si>
+    <t>MCH Dausa</t>
+  </si>
+  <si>
+    <t>AIR Jodhpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kishangarh </t>
+  </si>
+  <si>
+    <t>Bikaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahdara </t>
+  </si>
+  <si>
+    <t>EMU Car Ghaziabad.</t>
+  </si>
+  <si>
+    <t>EOG</t>
+  </si>
+  <si>
+    <t>Gangapur</t>
+  </si>
+  <si>
+    <t>Bharatpur</t>
+  </si>
+  <si>
+    <t>NEW ROH</t>
+  </si>
+  <si>
+    <t>NKJ ADMIN</t>
+  </si>
+  <si>
+    <t>NPOH.</t>
+  </si>
+  <si>
+    <t>Satna</t>
+  </si>
+  <si>
+    <t>REWA</t>
+  </si>
+  <si>
+    <t>Maihar</t>
+  </si>
+  <si>
+    <t>Lonavala</t>
+  </si>
+  <si>
+    <t>DRM Office Pune</t>
+  </si>
+  <si>
+    <t>Pune Railway Station ( Platforms)-CR, Pune.</t>
+  </si>
+  <si>
+    <t>Khadki</t>
+  </si>
+  <si>
+    <t>Shivaji Nagar</t>
+  </si>
+  <si>
+    <t>Ajmer Carriage</t>
+  </si>
+  <si>
+    <t>Ajmer LOCO</t>
+  </si>
+  <si>
+    <t>RCF Admin</t>
+  </si>
+  <si>
+    <t>TTC Main</t>
+  </si>
+  <si>
+    <t>RCF CMT LAB</t>
+  </si>
+  <si>
+    <t>Lumax Manesar</t>
+  </si>
+  <si>
+    <t>Lumax Kolar</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>DH ganganagar</t>
   </si>
 </sst>
 </file>
@@ -884,9 +985,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="166" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +997,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -977,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1000,8 +1113,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
@@ -2751,6 +2894,1025 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="16">
+        <v>28.370311395527398</v>
+      </c>
+      <c r="C2" s="19">
+        <v>76.930001269232093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="16">
+        <v>13.135848614510399</v>
+      </c>
+      <c r="C3" s="19">
+        <v>77.985418534617295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="16">
+        <v>23.982130955737301</v>
+      </c>
+      <c r="C4" s="19">
+        <v>79.2001273177911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="16">
+        <v>21.329554000000002</v>
+      </c>
+      <c r="C5" s="19">
+        <v>81.609386000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="21">
+        <v>25.788972999999999</v>
+      </c>
+      <c r="C6" s="19">
+        <v>72.157349999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="15">
+        <v>21.235326761873502</v>
+      </c>
+      <c r="C2" s="19">
+        <v>81.471840105782803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15">
+        <v>14.262435321226301</v>
+      </c>
+      <c r="C3" s="19">
+        <v>76.777889112808396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15">
+        <v>14.267161276205</v>
+      </c>
+      <c r="C4" s="19">
+        <v>76.768444280525102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15">
+        <v>14.261855418088301</v>
+      </c>
+      <c r="C5" s="19">
+        <v>76.775727024128201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15">
+        <v>14.261858002846401</v>
+      </c>
+      <c r="C6" s="19">
+        <v>76.775434981457906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>12.361585846331501</v>
+      </c>
+      <c r="C7" s="19">
+        <v>77.589444534737893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="15">
+        <v>13.7504844248792</v>
+      </c>
+      <c r="C8" s="19">
+        <v>77.183166197649101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="15">
+        <v>15.053193291825901</v>
+      </c>
+      <c r="C9" s="19">
+        <v>76.103282940443904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="15">
+        <v>13.828506466591801</v>
+      </c>
+      <c r="C10" s="19">
+        <v>77.357067435743005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="15">
+        <v>24.6553116789242</v>
+      </c>
+      <c r="C11" s="19">
+        <v>72.407163307787798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="15">
+        <v>23.3959917840725</v>
+      </c>
+      <c r="C12" s="19">
+        <v>71.640044881900806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16">
+        <v>29.317309793916898</v>
+      </c>
+      <c r="C13" s="19">
+        <v>76.980904087568504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="15">
+        <v>34.624486597646303</v>
+      </c>
+      <c r="C14" s="19">
+        <v>77.454890230199396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" s="16">
+        <v>26.9502623496284</v>
+      </c>
+      <c r="C15" s="19">
+        <v>75.126444411479596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" s="16">
+        <v>26.902773265632899</v>
+      </c>
+      <c r="C16" s="19">
+        <v>75.177289046714804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="16">
+        <v>29.90306</v>
+      </c>
+      <c r="C17" s="19">
+        <v>73.874369000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>26.8707821</v>
+      </c>
+      <c r="C18" s="19">
+        <v>75.820805100000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="16">
+        <v>26.883800999999998</v>
+      </c>
+      <c r="C19" s="19">
+        <v>76.335864999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16">
+        <v>26.882902000000001</v>
+      </c>
+      <c r="C20" s="19">
+        <v>76.336027000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16">
+        <v>25.106414793707099</v>
+      </c>
+      <c r="C21" s="19">
+        <v>76.503787105918207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16">
+        <v>25.104236675150201</v>
+      </c>
+      <c r="C22" s="19">
+        <v>76.502916299752599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="16">
+        <v>24.024072584734501</v>
+      </c>
+      <c r="C23" s="19">
+        <v>74.781893716241996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="16">
+        <v>24.0218222098597</v>
+      </c>
+      <c r="C24" s="19">
+        <v>74.782001327772406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="16">
+        <v>27.525115525397801</v>
+      </c>
+      <c r="C25" s="19">
+        <v>76.681651281033893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="16">
+        <v>26.916512999999998</v>
+      </c>
+      <c r="C26" s="19">
+        <v>70.907250000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B27" s="16">
+        <v>26.302978</v>
+      </c>
+      <c r="C27" s="19">
+        <v>73.041327999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="16">
+        <v>26.280608000000001</v>
+      </c>
+      <c r="C28" s="19">
+        <v>72.987982000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16">
+        <v>25.749953999999999</v>
+      </c>
+      <c r="C29" s="19">
+        <v>71.396403000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="16">
+        <v>28.07659215</v>
+      </c>
+      <c r="C30" s="19">
+        <v>75.824348929999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="16">
+        <v>27.565681980000001</v>
+      </c>
+      <c r="C31" s="19">
+        <v>76.612821049999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16">
+        <v>27.562694</v>
+      </c>
+      <c r="C32" s="19">
+        <v>76.611953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="15">
+        <v>24.887513999999999</v>
+      </c>
+      <c r="C33" s="19">
+        <v>72.858242000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="16">
+        <v>24.886441000000001</v>
+      </c>
+      <c r="C34" s="19">
+        <v>72.859279999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="16">
+        <v>25.343558000000002</v>
+      </c>
+      <c r="C35" s="19">
+        <v>72.624319999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="16">
+        <v>25.344334</v>
+      </c>
+      <c r="C36" s="19">
+        <v>72.625113999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="16">
+        <v>26.412427999999998</v>
+      </c>
+      <c r="C37" s="19">
+        <v>74.654404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38" s="16">
+        <v>26.581799</v>
+      </c>
+      <c r="C38" s="19">
+        <v>74.861147000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="16">
+        <v>26.918441257211999</v>
+      </c>
+      <c r="C39" s="19">
+        <v>75.797865511371199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" s="16">
+        <v>28.020617000000001</v>
+      </c>
+      <c r="C40" s="19">
+        <v>73.302612999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="16">
+        <v>28.612008738067999</v>
+      </c>
+      <c r="C41" s="19">
+        <v>77.115690692106398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" s="16">
+        <v>28.673646573095599</v>
+      </c>
+      <c r="C42" s="19">
+        <v>77.2921463162767</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="16">
+        <v>28.662897850726001</v>
+      </c>
+      <c r="C43" s="19">
+        <v>77.186504855570305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="16">
+        <v>28.6277237498497</v>
+      </c>
+      <c r="C44" s="19">
+        <v>77.463383595136406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="16">
+        <v>28.505361000000001</v>
+      </c>
+      <c r="C45" s="19">
+        <v>77.293436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="16">
+        <v>28.506789000000001</v>
+      </c>
+      <c r="C46" s="19">
+        <v>77.293576999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="16">
+        <v>28.516801999999998</v>
+      </c>
+      <c r="C47" s="19">
+        <v>77.290199000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="16">
+        <v>28.504828</v>
+      </c>
+      <c r="C48" s="19">
+        <v>77.294233000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" s="16">
+        <v>28.647618078493</v>
+      </c>
+      <c r="C49" s="19">
+        <v>77.221000523696404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="16">
+        <v>26.468328684868801</v>
+      </c>
+      <c r="C50" s="19">
+        <v>76.726990159229501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" s="16">
+        <v>27.236890672282101</v>
+      </c>
+      <c r="C51" s="19">
+        <v>77.487616565827295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B52" s="16">
+        <v>25.201929436424798</v>
+      </c>
+      <c r="C52" s="19">
+        <v>75.885233859068094</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" s="16">
+        <v>23.798400000000001</v>
+      </c>
+      <c r="C53" s="19">
+        <v>80.432000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="16">
+        <v>23.807700033212001</v>
+      </c>
+      <c r="C54" s="19">
+        <v>80.423284245459598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="16">
+        <v>23.809694789504199</v>
+      </c>
+      <c r="C55" s="19">
+        <v>80.430470779277996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" s="16">
+        <v>23.814729080016999</v>
+      </c>
+      <c r="C56" s="19">
+        <v>80.419821660747402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="16">
+        <v>23.8141650598693</v>
+      </c>
+      <c r="C57" s="19">
+        <v>80.420305720953294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" s="16">
+        <v>24.5644998349199</v>
+      </c>
+      <c r="C58" s="19">
+        <v>80.828253899987502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B59" s="16">
+        <v>24.537889602966299</v>
+      </c>
+      <c r="C59" s="19">
+        <v>81.251315722957997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" s="16">
+        <v>24.256978297625</v>
+      </c>
+      <c r="C60" s="19">
+        <v>80.7638415930289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="16">
+        <v>23.283879014992301</v>
+      </c>
+      <c r="C61" s="19">
+        <v>77.425487620512897</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="16">
+        <v>19.069706804623799</v>
+      </c>
+      <c r="C62" s="19">
+        <v>72.891284520018402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="16">
+        <v>19.070996248248498</v>
+      </c>
+      <c r="C63" s="19">
+        <v>72.893444395396997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="16">
+        <v>18.748765485997701</v>
+      </c>
+      <c r="C64" s="19">
+        <v>73.409008555822098</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B65" s="16">
+        <v>18.530498703517001</v>
+      </c>
+      <c r="C65" s="19">
+        <v>73.872528911803101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B66" s="16">
+        <v>18.529357057886202</v>
+      </c>
+      <c r="C66" s="19">
+        <v>73.873806437617105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B67" s="16">
+        <v>18.563656531239602</v>
+      </c>
+      <c r="C67" s="19">
+        <v>73.840416661655397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B68" s="16">
+        <v>18.531636927834199</v>
+      </c>
+      <c r="C68" s="19">
+        <v>73.852209128512797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="16">
+        <v>19.054364677531201</v>
+      </c>
+      <c r="C69" s="19">
+        <v>73.0106125548091</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="16">
+        <v>19.053874470158998</v>
+      </c>
+      <c r="C70" s="19">
+        <v>73.012298979347605</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" s="16">
+        <v>26.436360499999999</v>
+      </c>
+      <c r="C71" s="19">
+        <v>74.642799100000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B72" s="16">
+        <v>26.4452</v>
+      </c>
+      <c r="C72" s="19">
+        <v>74.640939000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B73" s="16">
+        <v>31.3157069953179</v>
+      </c>
+      <c r="C73" s="19">
+        <v>75.338395660546396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" s="16">
+        <v>31.3059295325783</v>
+      </c>
+      <c r="C74" s="19">
+        <v>75.342787028425505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="16">
+        <v>31.321775671769998</v>
+      </c>
+      <c r="C75" s="19">
+        <v>75.346327123815797</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="16">
+        <v>31.324534687772701</v>
+      </c>
+      <c r="C76" s="19">
+        <v>75.349602444711707</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B77" s="16">
+        <v>31.310024618538598</v>
+      </c>
+      <c r="C77" s="19">
+        <v>75.338424014698603</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="16">
+        <v>31.3103265728158</v>
+      </c>
+      <c r="C78" s="19">
+        <v>75.341627425262601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" s="16">
+        <v>28.370311395527398</v>
+      </c>
+      <c r="C79" s="19">
+        <v>76.930001269232093</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" s="16">
+        <v>13.135848614510399</v>
+      </c>
+      <c r="C80" s="19">
+        <v>77.985418534617295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" s="16">
+        <v>23.982130955737301</v>
+      </c>
+      <c r="C81" s="19">
+        <v>79.2001273177911</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="16">
+        <v>21.329554000000002</v>
+      </c>
+      <c r="C82" s="19">
+        <v>81.609386000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="21">
+        <v>25.788972999999999</v>
+      </c>
+      <c r="C83" s="19">
+        <v>72.157349999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3042,7 +4204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>

--- a/Project List.xlsx
+++ b/Project List.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="541">
   <si>
     <t>RSPL</t>
   </si>
@@ -1642,9 +1642,6 @@
     <t>tarrif_changes</t>
   </si>
   <si>
-    <t>MCH Srianganagar</t>
-  </si>
-  <si>
     <t>ESI Alwar</t>
   </si>
   <si>
@@ -1655,9 +1652,6 @@
   </si>
   <si>
     <t>Anjuman</t>
-  </si>
-  <si>
-    <t>asdads</t>
   </si>
 </sst>
 </file>
@@ -4083,10 +4077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C915"/>
+  <dimension ref="A1:B915"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4095,7 +4089,7 @@
     <col min="2" max="2" width="12.6640625" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="50" t="s">
         <v>265</v>
       </c>
@@ -4103,18 +4097,15 @@
         <v>536</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="52" t="s">
-        <v>542</v>
+        <v>13</v>
       </c>
       <c r="B2" s="53">
         <v>2.91</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
         <v>12</v>
       </c>
@@ -4122,7 +4113,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="52" t="s">
         <v>183</v>
       </c>
@@ -4130,7 +4121,7 @@
         <v>10.752000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="52" t="s">
         <v>518</v>
       </c>
@@ -4138,7 +4129,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="52" t="s">
         <v>519</v>
       </c>
@@ -4146,7 +4137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="52" t="s">
         <v>78</v>
       </c>
@@ -4154,7 +4145,7 @@
         <v>15.32</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="54" t="s">
         <v>3</v>
       </c>
@@ -4162,7 +4153,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="54" t="s">
         <v>4</v>
       </c>
@@ -4170,7 +4161,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="54" t="s">
         <v>5</v>
       </c>
@@ -4178,7 +4169,7 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="54" t="s">
         <v>6</v>
       </c>
@@ -4186,7 +4177,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="54" t="s">
         <v>7</v>
       </c>
@@ -4194,7 +4185,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="54" t="s">
         <v>8</v>
       </c>
@@ -4202,7 +4193,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="54" t="s">
         <v>520</v>
       </c>
@@ -4210,7 +4201,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="54" t="s">
         <v>9</v>
       </c>
@@ -4218,7 +4209,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="54" t="s">
         <v>521</v>
       </c>
@@ -4260,7 +4251,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="80" t="s">
-        <v>537</v>
+        <v>74</v>
       </c>
       <c r="B21" s="81">
         <v>4.95</v>
@@ -4324,7 +4315,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="80" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B29" s="81">
         <v>3.2</v>
@@ -4764,7 +4755,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="86" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B84" s="87">
         <v>5.9</v>
@@ -4780,7 +4771,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="75" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B86" s="76">
         <v>4.0999999999999996</v>
@@ -4796,7 +4787,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="60" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B88" s="62">
         <v>3.69</v>

--- a/Project List.xlsx
+++ b/Project List.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="542">
   <si>
     <t>RSPL</t>
   </si>
@@ -1633,9 +1633,6 @@
     <t>CMT LAB</t>
   </si>
   <si>
-    <t>IVL</t>
-  </si>
-  <si>
     <t>Kolar</t>
   </si>
   <si>
@@ -1652,6 +1649,12 @@
   </si>
   <si>
     <t>Anjuman</t>
+  </si>
+  <si>
+    <t>Indorama</t>
+  </si>
+  <si>
+    <t>Staff Canteen</t>
   </si>
 </sst>
 </file>
@@ -4077,35 +4080,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B915"/>
+  <dimension ref="A1:E914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="65.88671875" style="79" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="79"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
         <v>265</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="53">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" s="84" t="s">
+        <v>526</v>
+      </c>
+      <c r="E2" s="85">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="52" t="s">
         <v>12</v>
       </c>
@@ -4113,7 +4124,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" s="52" t="s">
         <v>183</v>
       </c>
@@ -4121,7 +4132,7 @@
         <v>10.752000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5" s="52" t="s">
         <v>518</v>
       </c>
@@ -4129,7 +4140,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5">
       <c r="A6" s="52" t="s">
         <v>519</v>
       </c>
@@ -4137,7 +4148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" s="52" t="s">
         <v>78</v>
       </c>
@@ -4145,7 +4156,7 @@
         <v>15.32</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8" s="54" t="s">
         <v>3</v>
       </c>
@@ -4153,7 +4164,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5">
       <c r="A9" s="54" t="s">
         <v>4</v>
       </c>
@@ -4161,7 +4172,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10" s="54" t="s">
         <v>5</v>
       </c>
@@ -4169,7 +4180,7 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:5">
       <c r="A11" s="54" t="s">
         <v>6</v>
       </c>
@@ -4177,7 +4188,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5">
       <c r="A12" s="54" t="s">
         <v>7</v>
       </c>
@@ -4185,7 +4196,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5">
       <c r="A13" s="54" t="s">
         <v>8</v>
       </c>
@@ -4193,7 +4204,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:5">
       <c r="A14" s="54" t="s">
         <v>520</v>
       </c>
@@ -4201,7 +4212,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:5">
       <c r="A15" s="54" t="s">
         <v>9</v>
       </c>
@@ -4209,7 +4220,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:5">
       <c r="A16" s="54" t="s">
         <v>521</v>
       </c>
@@ -4315,7 +4326,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="80" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B29" s="81">
         <v>3.2</v>
@@ -4642,32 +4653,32 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="84" t="s">
-        <v>526</v>
-      </c>
-      <c r="B70" s="85">
+      <c r="A70" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="B70" s="70">
         <v>3.47</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="60" t="s">
-        <v>296</v>
+        <v>527</v>
       </c>
       <c r="B71" s="70">
         <v>3.47</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="60" t="s">
-        <v>527</v>
+      <c r="A72" s="69" t="s">
+        <v>528</v>
       </c>
       <c r="B72" s="70">
         <v>3.47</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="69" t="s">
-        <v>528</v>
+      <c r="A73" s="63" t="s">
+        <v>529</v>
       </c>
       <c r="B73" s="70">
         <v>3.47</v>
@@ -4675,31 +4686,31 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="63" t="s">
-        <v>529</v>
-      </c>
-      <c r="B74" s="70">
+        <v>298</v>
+      </c>
+      <c r="B74" s="61">
         <v>3.47</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="B75" s="61">
+        <v>299</v>
+      </c>
+      <c r="B75" s="62">
         <v>3.47</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="B76" s="62">
-        <v>3.47</v>
+      <c r="A76" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="B76" s="72">
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="71" t="s">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="B77" s="72">
         <v>4.1500000000000004</v>
@@ -4707,7 +4718,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="71" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B78" s="72">
         <v>4.1500000000000004</v>
@@ -4715,7 +4726,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="71" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B79" s="72">
         <v>4.1500000000000004</v>
@@ -4723,75 +4734,71 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="71" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B80" s="72">
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="71" t="s">
-        <v>533</v>
-      </c>
-      <c r="B81" s="72">
+      <c r="A81" s="73" t="s">
+        <v>541</v>
+      </c>
+      <c r="B81" s="74">
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="74">
+      <c r="A82" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="76">
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="76">
-        <v>4.1500000000000004</v>
+      <c r="A83" s="86" t="s">
+        <v>539</v>
+      </c>
+      <c r="B83" s="87">
+        <v>5.9</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="86" t="s">
+      <c r="A84" s="75" t="s">
         <v>540</v>
       </c>
-      <c r="B84" s="87">
-        <v>5.9</v>
+      <c r="B84" s="76">
+        <v>4.5</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="75" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B85" s="76">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="75" t="s">
+        <v>534</v>
+      </c>
+      <c r="B86" s="76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="60" t="s">
         <v>538</v>
       </c>
-      <c r="B86" s="76">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="75" t="s">
-        <v>535</v>
-      </c>
-      <c r="B87" s="76">
-        <v>4</v>
+      <c r="B87" s="62">
+        <v>3.69</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="60" t="s">
-        <v>539</v>
-      </c>
-      <c r="B88" s="62">
-        <v>3.69</v>
-      </c>
+      <c r="A88" s="77"/>
+      <c r="B88" s="78"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="77"/>
@@ -8096,10 +8103,6 @@
     <row r="914" spans="1:2">
       <c r="A914" s="77"/>
       <c r="B914" s="78"/>
-    </row>
-    <row r="915" spans="1:2">
-      <c r="A915" s="77"/>
-      <c r="B915" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
